--- a/Vsilva.xlsx
+++ b/Vsilva.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66392F9-8923-4F36-BD9A-329734FF9CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D19142E-5CEF-407F-B5DA-82DFCCA701DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B9E0E5B-35FC-4485-95B3-8885C20D1100}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vsilva" sheetId="1" r:id="rId1"/>
+    <sheet name="Vsilva2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -969,7 +969,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Vsilva.xlsx
+++ b/Vsilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D19142E-5CEF-407F-B5DA-82DFCCA701DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD3BD8-59D8-4067-BCF7-D5F622F94A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B9E0E5B-35FC-4485-95B3-8885C20D1100}"/>
   </bookViews>
@@ -478,10 +478,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,7 +970,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +980,7 @@
     <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1003,7 +1004,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1023,7 +1024,7 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>4214.05</v>
       </c>
     </row>
@@ -1043,7 +1044,7 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>4323.37</v>
       </c>
     </row>
@@ -1063,7 +1064,7 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>366.71</v>
       </c>
     </row>
@@ -1083,7 +1084,7 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>646.35</v>
       </c>
     </row>
@@ -1103,7 +1104,7 @@
       <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>177.04</v>
       </c>
     </row>
@@ -1123,7 +1124,7 @@
       <c r="E7" s="1">
         <v>43</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>6763.05</v>
       </c>
     </row>
@@ -1143,7 +1144,7 @@
       <c r="E8" s="1">
         <v>42</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>764.69</v>
       </c>
     </row>
@@ -1163,7 +1164,7 @@
       <c r="E9" s="1">
         <v>35</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>3342.73</v>
       </c>
     </row>
@@ -1183,7 +1184,7 @@
       <c r="E10" s="1">
         <v>34</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>389.66</v>
       </c>
     </row>
@@ -1203,7 +1204,7 @@
       <c r="E11" s="1">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>726.95</v>
       </c>
     </row>
@@ -1223,7 +1224,7 @@
       <c r="E12" s="1">
         <v>73</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>213.1</v>
       </c>
     </row>
@@ -1243,7 +1244,7 @@
       <c r="E13" s="1">
         <v>22</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>992.69</v>
       </c>
     </row>
@@ -1263,7 +1264,7 @@
       <c r="E14" s="1">
         <v>21</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>1571.66</v>
       </c>
     </row>
@@ -1283,7 +1284,7 @@
       <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>382.47</v>
       </c>
     </row>
@@ -1303,7 +1304,7 @@
       <c r="E16" s="1">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>21</v>
       </c>
     </row>
@@ -1323,7 +1324,7 @@
       <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>396.04</v>
       </c>
     </row>
@@ -1343,7 +1344,7 @@
       <c r="E18" s="1">
         <v>15</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>309.31</v>
       </c>
     </row>
@@ -1363,7 +1364,7 @@
       <c r="E19" s="1">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>4925.1000000000004</v>
       </c>
     </row>
@@ -1383,7 +1384,7 @@
       <c r="E20" s="1">
         <v>9</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>808.13</v>
       </c>
     </row>
@@ -1403,7 +1404,7 @@
       <c r="E21" s="1">
         <v>9</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>603.13</v>
       </c>
     </row>
@@ -1423,7 +1424,7 @@
       <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>1008.07</v>
       </c>
     </row>
@@ -1443,7 +1444,7 @@
       <c r="E23" s="1">
         <v>7</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>4675.67</v>
       </c>
     </row>
@@ -1463,7 +1464,7 @@
       <c r="E24" s="1">
         <v>7</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>765.47</v>
       </c>
     </row>
@@ -1483,7 +1484,7 @@
       <c r="E25" s="1">
         <v>104</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>233.77</v>
       </c>
     </row>
@@ -1503,7 +1504,7 @@
       <c r="E26" s="1">
         <v>444</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>597.29</v>
       </c>
     </row>
@@ -1523,7 +1524,7 @@
       <c r="E27" s="1">
         <v>444</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>591.72</v>
       </c>
     </row>
@@ -1543,7 +1544,7 @@
       <c r="E28" s="1">
         <v>431</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>599.27</v>
       </c>
     </row>
@@ -1563,7 +1564,7 @@
       <c r="E29" s="1">
         <v>205</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>123.81</v>
       </c>
     </row>
@@ -1583,7 +1584,7 @@
       <c r="E30" s="1">
         <v>176</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>3108.19</v>
       </c>
     </row>
@@ -1603,7 +1604,7 @@
       <c r="E31" s="1">
         <v>175</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>466.29</v>
       </c>
     </row>
@@ -1623,7 +1624,7 @@
       <c r="E32" s="1">
         <v>160</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>367.21</v>
       </c>
     </row>
@@ -1643,7 +1644,7 @@
       <c r="E33" s="1">
         <v>155</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>24601.439999999999</v>
       </c>
     </row>
@@ -1663,7 +1664,7 @@
       <c r="E34" s="1">
         <v>153</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>222.6</v>
       </c>
     </row>
@@ -1683,7 +1684,7 @@
       <c r="E35" s="1">
         <v>57</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>713.34</v>
       </c>
     </row>
@@ -1703,7 +1704,7 @@
       <c r="E36" s="1">
         <v>26</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>1840.36</v>
       </c>
     </row>
